--- a/data/data-wrangling-intermediate/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
+++ b/data/data-wrangling-intermediate/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7B0641-FD0A-49CB-9BC3-4BFCFFF62375}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C62FAD5-3533-4239-80C6-A0F44D276726}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={06B7E8C8-2B43-4CFF-B28E-B5D61E6F345F}</author>
+  </authors>
+  <commentList>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{06B7E8C8-2B43-4CFF-B28E-B5D61E6F345F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ATCA2 was seeded in warm mix, is that what they meant?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="132">
   <si>
     <t>Site</t>
   </si>
@@ -410,13 +428,19 @@
   </si>
   <si>
     <t>S-HEBO</t>
+  </si>
+  <si>
+    <t>ATCA</t>
+  </si>
+  <si>
+    <t>Atriplex californica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +574,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -971,16 +1001,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -995,8 +1025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9928860" y="274320"/>
-          <a:ext cx="2567940" cy="2788920"/>
+          <a:off x="9305925" y="219075"/>
+          <a:ext cx="2562225" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,6 +1126,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{40540723-5238-4DB9-8E41-FFB5C3935C3C}" userId="S::lossanna@arizona.edu::4ef914cd-790d-460d-a4af-cca4fc5cf0d2" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1393,13 +1429,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J4" dT="2023-09-20T23:15:17.73" personId="{40540723-5238-4DB9-8E41-FFB5C3935C3C}" id="{06B7E8C8-2B43-4CFF-B28E-B5D61E6F345F}">
+    <text>ATCA2 was seeded in warm mix, is that what they meant?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,58 +1560,58 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
+      <c r="J4" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1584,13 +1628,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
@@ -1599,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1616,19 +1660,19 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
@@ -1648,19 +1692,19 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -1676,13 +1720,13 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
@@ -1697,28 +1741,28 @@
       <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>125</v>
+      <c r="J9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -1729,8 +1773,8 @@
       <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
-        <v>17</v>
+      <c r="J10" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1744,13 +1788,13 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -1759,7 +1803,7 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1772,13 +1816,13 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="s">
@@ -1793,8 +1837,8 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>125</v>
+      <c r="J12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1804,17 +1848,17 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -1823,10 +1867,10 @@
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1840,13 +1884,13 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -1855,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1869,16 +1913,16 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -1904,13 +1948,13 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -1936,13 +1980,13 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1951,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1968,13 +2012,13 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -1983,7 +2027,7 @@
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2000,13 +2044,13 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -2028,13 +2072,13 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
       <c r="F20" t="s">
@@ -2049,8 +2093,8 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>125</v>
+      <c r="J20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2060,17 +2104,17 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -2079,10 +2123,10 @@
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2096,13 +2140,13 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -2111,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -2119,7 +2163,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -2128,13 +2172,13 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -2143,7 +2187,7 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -2156,13 +2200,13 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>33</v>
       </c>
       <c r="F24" t="s">
@@ -2177,8 +2221,8 @@
       <c r="I24" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>125</v>
+      <c r="J24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2188,17 +2232,17 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -2207,10 +2251,10 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2220,13 +2264,13 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>58</v>
       </c>
       <c r="F26" t="s">
@@ -2241,8 +2285,8 @@
       <c r="I26" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>125</v>
+      <c r="J26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2252,17 +2296,17 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -2273,8 +2317,8 @@
       <c r="I27" t="s">
         <v>25</v>
       </c>
-      <c r="J27" t="s">
-        <v>17</v>
+      <c r="J27" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2288,13 +2332,13 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -2303,7 +2347,7 @@
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
@@ -2320,13 +2364,13 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
@@ -2335,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>17</v>
@@ -2349,16 +2393,16 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -2367,7 +2411,7 @@
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -2381,16 +2425,16 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -2399,7 +2443,7 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
@@ -2413,22 +2457,22 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
@@ -2445,25 +2489,25 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
@@ -2477,16 +2521,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -2495,7 +2539,7 @@
         <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
@@ -2512,13 +2556,13 @@
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
@@ -2527,7 +2571,7 @@
         <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -2544,13 +2588,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>6</v>
@@ -2567,22 +2611,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
@@ -2591,7 +2635,7 @@
         <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
@@ -2605,16 +2649,16 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>6</v>
@@ -2623,7 +2667,7 @@
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
@@ -2637,16 +2681,16 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
         <v>6</v>
@@ -2672,13 +2716,13 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>6</v>
@@ -2687,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -2704,13 +2748,13 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>6</v>
@@ -2719,7 +2763,7 @@
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -2736,13 +2780,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>6</v>
@@ -2751,7 +2795,7 @@
         <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
@@ -2765,16 +2809,16 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -2783,7 +2827,7 @@
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J43" t="s">
         <v>17</v>
@@ -2797,16 +2841,16 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -2815,7 +2859,7 @@
         <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -2832,13 +2876,13 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
@@ -2847,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -2861,16 +2905,16 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
         <v>6</v>
@@ -2896,13 +2940,13 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
@@ -2928,13 +2972,13 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -2951,22 +2995,22 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
         <v>6</v>
@@ -2992,13 +3036,13 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
         <v>6</v>
@@ -3007,7 +3051,7 @@
         <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -3024,19 +3068,19 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
@@ -3053,25 +3097,25 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
@@ -3088,22 +3132,22 @@
         <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
         <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -3120,19 +3164,19 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
         <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -3149,16 +3193,16 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
         <v>6</v>
@@ -3175,7 +3219,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -3184,13 +3228,13 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
         <v>6</v>
@@ -3199,7 +3243,7 @@
         <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -3216,13 +3260,13 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
@@ -3248,22 +3292,22 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -3280,22 +3324,22 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -3309,16 +3353,16 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
@@ -3344,22 +3388,22 @@
         <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -3376,22 +3420,22 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
         <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I62" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -3408,13 +3452,13 @@
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G63" t="s">
         <v>6</v>
@@ -3431,22 +3475,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s">
         <v>6</v>
@@ -3472,13 +3516,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
         <v>6</v>
@@ -3487,7 +3531,7 @@
         <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -3504,19 +3548,19 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -3536,22 +3580,22 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
         <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -3565,16 +3609,16 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s">
         <v>6</v>
@@ -3600,22 +3644,22 @@
         <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G69" t="s">
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
@@ -3632,19 +3676,19 @@
         <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G70" t="s">
         <v>6</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -3660,13 +3704,13 @@
       <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>66</v>
       </c>
       <c r="F71" t="s">
@@ -3681,8 +3725,8 @@
       <c r="I71" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>125</v>
+      <c r="J71" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3692,17 +3736,17 @@
       <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="C72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" t="s">
-        <v>68</v>
+      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
         <v>6</v>
@@ -3711,10 +3755,10 @@
         <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3725,16 +3769,16 @@
         <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G73" t="s">
         <v>6</v>
@@ -3743,7 +3787,7 @@
         <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
@@ -3751,22 +3795,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>6</v>
@@ -3775,7 +3819,7 @@
         <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -3789,25 +3833,25 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
         <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -3821,16 +3865,16 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
         <v>6</v>
@@ -3856,19 +3900,19 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s">
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
         <v>16</v>
@@ -3879,7 +3923,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
@@ -3888,13 +3932,13 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s">
         <v>6</v>
@@ -3903,7 +3947,7 @@
         <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J78" t="s">
         <v>17</v>
@@ -3917,25 +3961,25 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s">
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -3952,19 +3996,19 @@
         <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
         <v>16</v>
@@ -3981,22 +4025,22 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E81" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G81" t="s">
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -4013,22 +4057,22 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s">
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
         <v>16</v>
@@ -4048,22 +4092,22 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I83" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J83" t="s">
         <v>17</v>
@@ -4076,17 +4120,17 @@
       <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>90</v>
+      <c r="D84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" t="s">
+        <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G84" t="s">
         <v>6</v>
@@ -4095,10 +4139,10 @@
         <v>24</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -4108,13 +4152,13 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F85" t="s">
@@ -4129,28 +4173,28 @@
       <c r="I85" t="s">
         <v>16</v>
       </c>
-      <c r="J85" t="s">
-        <v>17</v>
+      <c r="J85" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
@@ -4159,7 +4203,7 @@
         <v>24</v>
       </c>
       <c r="I86" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
@@ -4173,25 +4217,25 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s">
         <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J87" t="s">
         <v>17</v>
@@ -4208,22 +4252,22 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
@@ -4240,22 +4284,22 @@
         <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J89" t="s">
         <v>17</v>
@@ -4269,16 +4313,16 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G90" t="s">
         <v>6</v>
@@ -4301,16 +4345,16 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
         <v>6</v>
@@ -4333,22 +4377,22 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="G92" t="s">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -4359,28 +4403,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I93" t="s">
         <v>16</v>
@@ -4397,25 +4441,25 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
         <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
@@ -4432,19 +4476,19 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I95" t="s">
         <v>25</v>
@@ -4461,16 +4505,16 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
         <v>6</v>
@@ -4496,22 +4540,22 @@
         <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>6</v>
       </c>
       <c r="H97" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J97" t="s">
         <v>17</v>
@@ -4525,16 +4569,16 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G98" t="s">
         <v>6</v>
@@ -4557,16 +4601,16 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G99" t="s">
         <v>6</v>
@@ -4589,22 +4633,22 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="G100" t="s">
         <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I100" t="s">
         <v>16</v>
@@ -4615,28 +4659,28 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I101" t="s">
         <v>16</v>
@@ -4653,25 +4697,25 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D102" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J102" t="s">
         <v>17</v>
@@ -4685,25 +4729,25 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E103" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G103" t="s">
         <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I103" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -4717,16 +4761,16 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G104" t="s">
         <v>6</v>
@@ -4749,16 +4793,16 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G105" t="s">
         <v>6</v>
@@ -4781,22 +4825,22 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="G106" t="s">
         <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I106" t="s">
         <v>16</v>
@@ -4813,16 +4857,16 @@
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>6</v>
@@ -4839,7 +4883,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
         <v>100</v>
@@ -4848,13 +4892,13 @@
         <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F108" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G108" t="s">
         <v>6</v>
@@ -4863,7 +4907,7 @@
         <v>24</v>
       </c>
       <c r="I108" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J108" t="s">
         <v>17</v>
@@ -4877,16 +4921,16 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="G109" t="s">
         <v>6</v>
@@ -4895,7 +4939,7 @@
         <v>24</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>
@@ -4909,25 +4953,25 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G110" t="s">
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I110" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J110" t="s">
         <v>17</v>
@@ -4941,25 +4985,25 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="G111" t="s">
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J111" t="s">
         <v>17</v>
@@ -4973,25 +5017,25 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E112" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F112" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G112" t="s">
         <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J112" t="s">
         <v>17</v>
@@ -5008,13 +5052,13 @@
         <v>37</v>
       </c>
       <c r="D113" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E113" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F113" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G113" t="s">
         <v>6</v>
@@ -5037,22 +5081,22 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="G114" t="s">
         <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I114" t="s">
         <v>16</v>
@@ -5063,22 +5107,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E115" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
         <v>6</v>
@@ -5087,7 +5131,7 @@
         <v>24</v>
       </c>
       <c r="I115" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J115" t="s">
         <v>17</v>
@@ -5121,7 +5165,7 @@
       <c r="I116" t="s">
         <v>25</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5136,13 +5180,13 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E117" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F117" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G117" t="s">
         <v>6</v>
@@ -5151,9 +5195,9 @@
         <v>24</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" t="s">
+        <v>25</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5168,19 +5212,19 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G118" t="s">
         <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I118" t="s">
         <v>16</v>
@@ -5196,16 +5240,16 @@
       <c r="B119" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" t="s">
         <v>14</v>
       </c>
       <c r="G119" t="s">
@@ -5217,8 +5261,8 @@
       <c r="I119" t="s">
         <v>16</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>125</v>
+      <c r="J119" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -5228,29 +5272,29 @@
       <c r="B120" t="s">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" t="s">
-        <v>81</v>
-      </c>
-      <c r="E120" t="s">
-        <v>81</v>
-      </c>
-      <c r="F120" t="s">
-        <v>82</v>
+      <c r="C120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G120" t="s">
         <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>25</v>
-      </c>
-      <c r="J120" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5261,16 +5305,16 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G121" t="s">
         <v>6</v>
@@ -5296,22 +5340,22 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E122" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
         <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I122" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J122" t="s">
         <v>17</v>
@@ -5328,22 +5372,22 @@
         <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E123" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F123" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G123" t="s">
         <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I123" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J123" t="s">
         <v>17</v>
@@ -5357,16 +5401,16 @@
         <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G124" t="s">
         <v>6</v>
@@ -5375,7 +5419,7 @@
         <v>24</v>
       </c>
       <c r="I124" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
@@ -5409,7 +5453,7 @@
       <c r="I125" t="s">
         <v>16</v>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5453,16 +5497,16 @@
         <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>6</v>
@@ -5471,9 +5515,9 @@
         <v>24</v>
       </c>
       <c r="I127" t="s">
-        <v>25</v>
-      </c>
-      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5505,28 +5549,28 @@
       <c r="I128" t="s">
         <v>25</v>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B129" t="s">
         <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F129" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G129" t="s">
         <v>6</v>
@@ -5537,7 +5581,7 @@
       <c r="I129" t="s">
         <v>25</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5569,7 +5613,7 @@
       <c r="I130" t="s">
         <v>25</v>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5584,13 +5628,13 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E131" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F131" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G131" t="s">
         <v>6</v>
@@ -5599,7 +5643,7 @@
         <v>24</v>
       </c>
       <c r="I131" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>17</v>
@@ -5616,13 +5660,13 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="E132" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F132" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G132" t="s">
         <v>6</v>
@@ -5631,9 +5675,9 @@
         <v>24</v>
       </c>
       <c r="I132" t="s">
-        <v>25</v>
-      </c>
-      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5644,17 +5688,17 @@
       <c r="B133" t="s">
         <v>119</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>59</v>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>81</v>
+      </c>
+      <c r="E133" t="s">
+        <v>81</v>
+      </c>
+      <c r="F133" t="s">
+        <v>82</v>
       </c>
       <c r="G133" t="s">
         <v>6</v>
@@ -5665,8 +5709,8 @@
       <c r="I133" t="s">
         <v>25</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>125</v>
+      <c r="J133" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5708,17 +5752,17 @@
       <c r="B135" t="s">
         <v>119</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D135" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" t="s">
-        <v>41</v>
+      <c r="D135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G135" t="s">
         <v>6</v>
@@ -5729,8 +5773,8 @@
       <c r="I135" t="s">
         <v>25</v>
       </c>
-      <c r="J135" t="s">
-        <v>17</v>
+      <c r="J135" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5741,16 +5785,16 @@
         <v>119</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E136" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
         <v>6</v>
@@ -5759,30 +5803,30 @@
         <v>24</v>
       </c>
       <c r="I136" t="s">
-        <v>16</v>
-      </c>
-      <c r="J136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>6</v>
@@ -5793,7 +5837,7 @@
       <c r="I137" t="s">
         <v>16</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5808,13 +5852,13 @@
         <v>32</v>
       </c>
       <c r="D138" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>6</v>
@@ -5823,7 +5867,7 @@
         <v>24</v>
       </c>
       <c r="I138" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J138" t="s">
         <v>17</v>
@@ -5840,13 +5884,13 @@
         <v>32</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E139" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
         <v>6</v>
@@ -5855,7 +5899,7 @@
         <v>24</v>
       </c>
       <c r="I139" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J139" t="s">
         <v>17</v>
@@ -5869,16 +5913,16 @@
         <v>122</v>
       </c>
       <c r="C140" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E140" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G140" t="s">
         <v>6</v>
@@ -5887,7 +5931,7 @@
         <v>24</v>
       </c>
       <c r="I140" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J140" t="s">
         <v>17</v>
@@ -5901,16 +5945,16 @@
         <v>122</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D141" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E141" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F141" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G141" t="s">
         <v>6</v>
@@ -5919,7 +5963,7 @@
         <v>24</v>
       </c>
       <c r="I141" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J141" t="s">
         <v>17</v>
@@ -5936,13 +5980,13 @@
         <v>32</v>
       </c>
       <c r="D142" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G142" t="s">
         <v>6</v>
@@ -5951,7 +5995,7 @@
         <v>24</v>
       </c>
       <c r="I142" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J142" t="s">
         <v>17</v>
@@ -5965,16 +6009,16 @@
         <v>122</v>
       </c>
       <c r="C143" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="E143" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F143" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G143" t="s">
         <v>6</v>
@@ -5983,7 +6027,7 @@
         <v>24</v>
       </c>
       <c r="I143" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
@@ -5996,16 +6040,16 @@
       <c r="B144" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="C144" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
         <v>66</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" t="s">
         <v>66</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" t="s">
         <v>67</v>
       </c>
       <c r="G144" t="s">
@@ -6017,28 +6061,28 @@
       <c r="I144" t="s">
         <v>16</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>125</v>
+      <c r="J144" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
         <v>122</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D145" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" t="s">
-        <v>33</v>
-      </c>
-      <c r="F145" t="s">
-        <v>34</v>
+      <c r="D145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G145" t="s">
         <v>6</v>
@@ -6049,8 +6093,8 @@
       <c r="I145" t="s">
         <v>16</v>
       </c>
-      <c r="J145" t="s">
-        <v>17</v>
+      <c r="J145" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -6064,13 +6108,13 @@
         <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
         <v>6</v>
@@ -6096,13 +6140,13 @@
         <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>6</v>
@@ -6111,7 +6155,7 @@
         <v>24</v>
       </c>
       <c r="I147" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J147" t="s">
         <v>17</v>
@@ -6128,13 +6172,13 @@
         <v>32</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E148" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
         <v>6</v>
@@ -6143,7 +6187,7 @@
         <v>24</v>
       </c>
       <c r="I148" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J148" t="s">
         <v>17</v>
@@ -6156,16 +6200,16 @@
       <c r="B149" t="s">
         <v>122</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="C149" t="s">
+        <v>32</v>
+      </c>
+      <c r="D149" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" t="s">
         <v>73</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" t="s">
         <v>74</v>
       </c>
       <c r="G149" t="s">
@@ -6177,8 +6221,8 @@
       <c r="I149" t="s">
         <v>16</v>
       </c>
-      <c r="J149" s="1" t="s">
-        <v>125</v>
+      <c r="J149" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -6188,17 +6232,17 @@
       <c r="B150" t="s">
         <v>122</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D150" t="s">
-        <v>60</v>
-      </c>
-      <c r="E150" t="s">
-        <v>60</v>
-      </c>
-      <c r="F150" t="s">
-        <v>61</v>
+      <c r="D150" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G150" t="s">
         <v>6</v>
@@ -6207,10 +6251,10 @@
         <v>24</v>
       </c>
       <c r="I150" t="s">
-        <v>62</v>
-      </c>
-      <c r="J150" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -6221,16 +6265,16 @@
         <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D151" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E151" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F151" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G151" t="s">
         <v>6</v>
@@ -6239,7 +6283,7 @@
         <v>24</v>
       </c>
       <c r="I151" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J151" t="s">
         <v>17</v>
@@ -6252,16 +6296,16 @@
       <c r="B152" t="s">
         <v>122</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C152" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" t="s">
         <v>52</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" t="s">
         <v>52</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" t="s">
         <v>53</v>
       </c>
       <c r="G152" t="s">
@@ -6273,8 +6317,8 @@
       <c r="I152" t="s">
         <v>16</v>
       </c>
-      <c r="J152" s="1" t="s">
-        <v>125</v>
+      <c r="J152" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -6284,17 +6328,17 @@
       <c r="B153" t="s">
         <v>122</v>
       </c>
-      <c r="C153" t="s">
-        <v>32</v>
-      </c>
-      <c r="D153" t="s">
-        <v>128</v>
-      </c>
-      <c r="E153" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" t="s">
-        <v>55</v>
+      <c r="C153" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G153" t="s">
         <v>6</v>
@@ -6303,15 +6347,15 @@
         <v>24</v>
       </c>
       <c r="I153" t="s">
-        <v>25</v>
-      </c>
-      <c r="J153" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B154" t="s">
         <v>122</v>
@@ -6320,13 +6364,13 @@
         <v>32</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G154" t="s">
         <v>6</v>
@@ -6335,7 +6379,7 @@
         <v>24</v>
       </c>
       <c r="I154" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J154" t="s">
         <v>17</v>
@@ -6352,13 +6396,13 @@
         <v>32</v>
       </c>
       <c r="D155" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
         <v>6</v>
@@ -6384,13 +6428,13 @@
         <v>32</v>
       </c>
       <c r="D156" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>6</v>
@@ -6399,7 +6443,7 @@
         <v>24</v>
       </c>
       <c r="I156" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J156" t="s">
         <v>17</v>
@@ -6412,16 +6456,16 @@
       <c r="B157" t="s">
         <v>122</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="C157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" t="s">
         <v>40</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" t="s">
         <v>40</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" t="s">
         <v>41</v>
       </c>
       <c r="G157" t="s">
@@ -6433,8 +6477,8 @@
       <c r="I157" t="s">
         <v>25</v>
       </c>
-      <c r="J157" s="1" t="s">
-        <v>125</v>
+      <c r="J157" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6444,17 +6488,17 @@
       <c r="B158" t="s">
         <v>122</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D158" t="s">
-        <v>129</v>
-      </c>
-      <c r="E158" t="s">
-        <v>46</v>
-      </c>
-      <c r="F158" t="s">
-        <v>47</v>
+      <c r="D158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G158" t="s">
         <v>6</v>
@@ -6463,10 +6507,10 @@
         <v>24</v>
       </c>
       <c r="I158" t="s">
-        <v>16</v>
-      </c>
-      <c r="J158" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -6480,7 +6524,7 @@
         <v>37</v>
       </c>
       <c r="D159" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="E159" t="s">
         <v>46</v>
@@ -6509,16 +6553,16 @@
         <v>122</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D160" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E160" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G160" t="s">
         <v>6</v>
@@ -6540,16 +6584,16 @@
       <c r="B161" t="s">
         <v>122</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="C161" t="s">
+        <v>32</v>
+      </c>
+      <c r="D161" t="s">
         <v>73</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" t="s">
         <v>73</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" t="s">
         <v>74</v>
       </c>
       <c r="G161" t="s">
@@ -6561,8 +6605,8 @@
       <c r="I161" t="s">
         <v>16</v>
       </c>
-      <c r="J161" s="1" t="s">
-        <v>125</v>
+      <c r="J161" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -6572,17 +6616,17 @@
       <c r="B162" t="s">
         <v>122</v>
       </c>
-      <c r="C162" t="s">
-        <v>37</v>
-      </c>
-      <c r="D162" t="s">
-        <v>48</v>
-      </c>
-      <c r="E162" t="s">
-        <v>48</v>
-      </c>
-      <c r="F162" t="s">
-        <v>49</v>
+      <c r="C162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G162" t="s">
         <v>6</v>
@@ -6591,10 +6635,10 @@
         <v>24</v>
       </c>
       <c r="I162" t="s">
-        <v>25</v>
-      </c>
-      <c r="J162" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -6608,13 +6652,13 @@
         <v>37</v>
       </c>
       <c r="D163" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E163" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G163" t="s">
         <v>6</v>
@@ -6637,16 +6681,16 @@
         <v>122</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F164" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G164" t="s">
         <v>6</v>
@@ -6655,7 +6699,7 @@
         <v>24</v>
       </c>
       <c r="I164" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J164" t="s">
         <v>17</v>
@@ -6672,13 +6716,13 @@
         <v>32</v>
       </c>
       <c r="D165" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="E165" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F165" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G165" t="s">
         <v>6</v>
@@ -6687,7 +6731,7 @@
         <v>24</v>
       </c>
       <c r="I165" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J165" t="s">
         <v>17</v>
@@ -6704,7 +6748,7 @@
         <v>32</v>
       </c>
       <c r="D166" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E166" t="s">
         <v>54</v>
@@ -6722,11 +6766,44 @@
         <v>25</v>
       </c>
       <c r="J166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>124</v>
+      </c>
+      <c r="B167" t="s">
+        <v>122</v>
+      </c>
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" t="s">
+        <v>54</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F167" t="s">
+        <v>55</v>
+      </c>
+      <c r="G167" t="s">
+        <v>6</v>
+      </c>
+      <c r="H167" t="s">
+        <v>24</v>
+      </c>
+      <c r="I167" t="s">
+        <v>25</v>
+      </c>
+      <c r="J167" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/data-wrangling-intermediate/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
+++ b/data/data-wrangling-intermediate/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C62FAD5-3533-4239-80C6-A0F44D276726}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF13393F-35E5-47EC-983C-58DF9E12F01E}"/>
   <bookViews>
     <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,26 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={06B7E8C8-2B43-4CFF-B28E-B5D61E6F345F}</author>
-  </authors>
-  <commentList>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{06B7E8C8-2B43-4CFF-B28E-B5D61E6F345F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ATCA2 was seeded in warm mix, is that what they meant?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="131">
   <si>
     <t>Site</t>
   </si>
@@ -431,16 +413,13 @@
   </si>
   <si>
     <t>ATCA</t>
-  </si>
-  <si>
-    <t>Atriplex californica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,12 +553,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1129,9 +1102,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{40540723-5238-4DB9-8E41-FFB5C3935C3C}" userId="S::lossanna@arizona.edu::4ef914cd-790d-460d-a4af-cca4fc5cf0d2" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,21 +1400,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J4" dT="2023-09-20T23:15:17.73" personId="{40540723-5238-4DB9-8E41-FFB5C3935C3C}" id="{06B7E8C8-2B43-4CFF-B28E-B5D61E6F345F}">
-    <text>ATCA2 was seeded in warm mix, is that what they meant?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,17 +1523,17 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>130</v>
+      <c r="E4" t="s">
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -1579,10 +1542,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -6804,6 +6767,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/data-wrangling-intermediate/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
+++ b/data/data-wrangling-intermediate/03.1b_edited-species-seeded2_corrected-seeded-in-mix_subplot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF13393F-35E5-47EC-983C-58DF9E12F01E}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:40009_{28A3A110-A06D-4DF3-ACB9-0ADAC0A6265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96F14BB-3B5D-4E2D-B0AA-7356AA92C57A}"/>
   <bookViews>
     <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="136">
   <si>
     <t>Site</t>
   </si>
@@ -413,6 +413,21 @@
   </si>
   <si>
     <t>ATCA</t>
+  </si>
+  <si>
+    <t>DACA</t>
+  </si>
+  <si>
+    <t>ENFA</t>
+  </si>
+  <si>
+    <t>Encelia farinosa</t>
+  </si>
+  <si>
+    <t>BOER</t>
+  </si>
+  <si>
+    <t>LILE</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1116,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1402,11 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,13 +2370,13 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -2374,7 +2385,7 @@
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -2388,16 +2399,16 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -2406,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
@@ -2420,16 +2431,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
@@ -2438,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
@@ -2452,22 +2463,22 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
@@ -2484,25 +2495,25 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
@@ -2516,16 +2527,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
@@ -2534,7 +2545,7 @@
         <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -2551,13 +2562,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>6</v>
@@ -2566,7 +2577,7 @@
         <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
         <v>17</v>
@@ -2583,13 +2594,13 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
@@ -2606,22 +2617,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>6</v>
@@ -2630,7 +2641,7 @@
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
@@ -2644,16 +2655,16 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>6</v>
@@ -2662,7 +2673,7 @@
         <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
@@ -2676,16 +2687,16 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
         <v>6</v>
@@ -2711,13 +2722,13 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>6</v>
@@ -2726,7 +2737,7 @@
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -2743,13 +2754,13 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>6</v>
@@ -2758,7 +2769,7 @@
         <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
@@ -2775,13 +2786,13 @@
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -2790,7 +2801,7 @@
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
         <v>17</v>
@@ -2804,16 +2815,16 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -2822,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -2836,16 +2847,16 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
@@ -2854,7 +2865,7 @@
         <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -2871,13 +2882,13 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
         <v>6</v>
@@ -2886,7 +2897,7 @@
         <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
@@ -2900,16 +2911,16 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
@@ -2935,13 +2946,13 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -2967,13 +2978,13 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
         <v>6</v>
@@ -2990,22 +3001,22 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
         <v>6</v>
@@ -3031,13 +3042,13 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
         <v>6</v>
@@ -3046,7 +3057,7 @@
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -3063,22 +3074,22 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
@@ -3092,16 +3103,16 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G53" t="s">
         <v>6</v>
@@ -3110,7 +3121,7 @@
         <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -3124,22 +3135,22 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
         <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -3159,13 +3170,13 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
         <v>6</v>
@@ -3174,7 +3185,7 @@
         <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -3188,22 +3199,22 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G56" t="s">
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I56" t="s">
         <v>16</v>
@@ -3214,22 +3225,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
@@ -3238,7 +3249,7 @@
         <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -3246,22 +3257,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
@@ -3278,7 +3289,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -3287,19 +3298,19 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
@@ -3319,13 +3330,13 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
@@ -3348,16 +3359,16 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s">
         <v>6</v>
@@ -3380,22 +3391,22 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
         <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
         <v>16</v>
@@ -3412,16 +3423,16 @@
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s">
         <v>6</v>
@@ -3447,13 +3458,13 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G64" t="s">
         <v>6</v>
@@ -3470,22 +3481,22 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
         <v>6</v>
@@ -3494,7 +3505,7 @@
         <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -3502,28 +3513,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -3534,31 +3545,31 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G67" t="s">
         <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -3566,22 +3577,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
         <v>6</v>
@@ -3604,16 +3615,16 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
         <v>6</v>
@@ -3636,22 +3647,22 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
         <v>6</v>
       </c>
       <c r="H70" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -3668,22 +3679,22 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -3699,17 +3710,17 @@
       <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>66</v>
+      <c r="D72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s">
         <v>6</v>
@@ -3718,10 +3729,10 @@
         <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>125</v>
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3735,13 +3746,13 @@
         <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G73" t="s">
         <v>6</v>
@@ -3764,22 +3775,22 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
         <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I74" t="s">
         <v>16</v>
@@ -3790,22 +3801,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
         <v>6</v>
@@ -3814,7 +3825,7 @@
         <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -3822,63 +3833,63 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I76" t="s">
         <v>16</v>
       </c>
-      <c r="J76" t="s">
-        <v>17</v>
+      <c r="J76" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
@@ -3886,22 +3897,22 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D78" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" t="s">
-        <v>90</v>
+      <c r="D78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
         <v>6</v>
@@ -3910,30 +3921,30 @@
         <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>6</v>
@@ -3942,7 +3953,7 @@
         <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -3950,31 +3961,31 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s">
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
@@ -3982,7 +3993,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>85</v>
@@ -3991,19 +4002,19 @@
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -4014,7 +4025,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>85</v>
@@ -4046,28 +4057,28 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
         <v>16</v>
@@ -4084,16 +4095,16 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s">
         <v>6</v>
@@ -4115,29 +4126,29 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>90</v>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>125</v>
+      <c r="J85" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -4148,16 +4159,16 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
@@ -4174,31 +4185,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
         <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J87" t="s">
         <v>17</v>
@@ -4206,28 +4217,28 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I88" t="s">
         <v>16</v>
@@ -4238,22 +4249,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
@@ -4262,7 +4273,7 @@
         <v>24</v>
       </c>
       <c r="I89" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J89" t="s">
         <v>17</v>
@@ -4270,60 +4281,60 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D90" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" t="s">
-        <v>103</v>
+      <c r="D90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s">
         <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I90" t="s">
         <v>16</v>
       </c>
-      <c r="J90" t="s">
-        <v>17</v>
+      <c r="J90" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G91" t="s">
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I91" t="s">
         <v>16</v>
@@ -4339,29 +4350,29 @@
       <c r="B92" t="s">
         <v>100</v>
       </c>
-      <c r="C92" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" t="s">
-        <v>107</v>
+      <c r="C92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G92" t="s">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4372,16 +4383,16 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
@@ -4390,7 +4401,7 @@
         <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
@@ -4398,31 +4409,31 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s">
         <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I94" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
@@ -4430,31 +4441,31 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J95" t="s">
         <v>17</v>
@@ -4462,22 +4473,22 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G96" t="s">
         <v>6</v>
@@ -4494,22 +4505,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G97" t="s">
         <v>6</v>
@@ -4518,7 +4529,7 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J97" t="s">
         <v>17</v>
@@ -4526,7 +4537,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -4558,22 +4569,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D99" t="s">
-        <v>105</v>
-      </c>
-      <c r="E99" t="s">
-        <v>105</v>
+      <c r="D99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G99" t="s">
         <v>6</v>
@@ -4584,28 +4595,28 @@
       <c r="I99" t="s">
         <v>16</v>
       </c>
-      <c r="J99" t="s">
-        <v>17</v>
+      <c r="J99" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G100" t="s">
         <v>6</v>
@@ -4622,39 +4633,39 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" t="s">
-        <v>28</v>
+      <c r="C101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I101" t="s">
         <v>16</v>
       </c>
-      <c r="J101" t="s">
-        <v>17</v>
+      <c r="J101" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -4663,19 +4674,19 @@
         <v>37</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -4686,54 +4697,54 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
         <v>100</v>
       </c>
-      <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" t="s">
-        <v>112</v>
-      </c>
-      <c r="E103" t="s">
-        <v>112</v>
+      <c r="C103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G103" t="s">
         <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
-      </c>
-      <c r="J103" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
         <v>100</v>
       </c>
-      <c r="C104" t="s">
-        <v>37</v>
-      </c>
-      <c r="D104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E104" t="s">
-        <v>103</v>
+      <c r="C104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F104" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G104" t="s">
         <v>6</v>
@@ -4744,13 +4755,13 @@
       <c r="I104" t="s">
         <v>16</v>
       </c>
-      <c r="J104" t="s">
-        <v>17</v>
+      <c r="J104" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
         <v>100</v>
@@ -4759,19 +4770,19 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
         <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I105" t="s">
         <v>16</v>
@@ -4782,54 +4793,54 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
         <v>100</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D106" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" t="s">
-        <v>107</v>
+      <c r="D106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
         <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I106" t="s">
         <v>16</v>
       </c>
-      <c r="J106" t="s">
-        <v>17</v>
+      <c r="J106" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
         <v>100</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" t="s">
-        <v>28</v>
+      <c r="D107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="G107" t="s">
         <v>6</v>
@@ -4840,13 +4851,13 @@
       <c r="I107" t="s">
         <v>16</v>
       </c>
-      <c r="J107" t="s">
-        <v>17</v>
+      <c r="J107" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
         <v>100</v>
@@ -4878,7 +4889,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>100</v>
@@ -4910,7 +4921,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>100</v>
@@ -4942,7 +4953,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>100</v>
@@ -4974,7 +4985,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
         <v>100</v>
@@ -4983,19 +4994,19 @@
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G112" t="s">
         <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I112" t="s">
         <v>25</v>
@@ -5006,31 +5017,31 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G113" t="s">
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I113" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J113" t="s">
         <v>17</v>
@@ -5038,7 +5049,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
         <v>100</v>
@@ -5047,22 +5058,22 @@
         <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F114" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G114" t="s">
         <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I114" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
@@ -5070,28 +5081,28 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B115" t="s">
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="G115" t="s">
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I115" t="s">
         <v>16</v>
@@ -5102,92 +5113,92 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" t="s">
-        <v>79</v>
-      </c>
-      <c r="E116" t="s">
-        <v>79</v>
+        <v>100</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F116" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G116" t="s">
         <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I116" t="s">
-        <v>25</v>
-      </c>
-      <c r="J116" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D117" t="s">
-        <v>79</v>
-      </c>
-      <c r="E117" t="s">
-        <v>79</v>
+      <c r="D117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F117" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G117" t="s">
         <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I117" t="s">
-        <v>25</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E118" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="G118" t="s">
         <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I118" t="s">
         <v>16</v>
@@ -5198,28 +5209,28 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G119" t="s">
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I119" t="s">
         <v>16</v>
@@ -5230,28 +5241,28 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
+      </c>
+      <c r="F120" t="s">
+        <v>108</v>
       </c>
       <c r="G120" t="s">
         <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I120" t="s">
         <v>16</v>
@@ -5262,22 +5273,22 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>6</v>
@@ -5286,7 +5297,7 @@
         <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J121" t="s">
         <v>17</v>
@@ -5294,22 +5305,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G122" t="s">
         <v>6</v>
@@ -5318,7 +5329,7 @@
         <v>24</v>
       </c>
       <c r="I122" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J122" t="s">
         <v>17</v>
@@ -5326,31 +5337,31 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G123" t="s">
         <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I123" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J123" t="s">
         <v>17</v>
@@ -5358,22 +5369,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E124" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="F124" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="G124" t="s">
         <v>6</v>
@@ -5382,7 +5393,7 @@
         <v>24</v>
       </c>
       <c r="I124" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
@@ -5390,28 +5401,28 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
         <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
         <v>16</v>
@@ -5422,22 +5433,22 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="G126" t="s">
         <v>6</v>
@@ -5446,30 +5457,30 @@
         <v>24</v>
       </c>
       <c r="I126" t="s">
-        <v>16</v>
-      </c>
-      <c r="J126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" t="s">
-        <v>28</v>
-      </c>
-      <c r="E127" t="s">
-        <v>28</v>
+        <v>100</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="G127" t="s">
         <v>6</v>
@@ -5478,39 +5489,39 @@
         <v>24</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E128" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F128" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G128" t="s">
         <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I128" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
         <v>17</v>
@@ -5518,63 +5529,63 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F129" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G129" t="s">
         <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I129" t="s">
-        <v>25</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E130" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F130" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="G130" t="s">
         <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I130" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
@@ -5582,86 +5593,86 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E131" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F131" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="G131" t="s">
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I131" t="s">
-        <v>25</v>
-      </c>
-      <c r="J131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
-      </c>
-      <c r="C132" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D132" t="s">
-        <v>26</v>
-      </c>
-      <c r="E132" t="s">
-        <v>26</v>
+      <c r="D132" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="G132" t="s">
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I132" t="s">
         <v>16</v>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>17</v>
+      <c r="J132" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B133" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>6</v>
@@ -5670,7 +5681,7 @@
         <v>24</v>
       </c>
       <c r="I133" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J133" t="s">
         <v>17</v>
@@ -5678,22 +5689,22 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
+      </c>
+      <c r="C134" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" t="s">
+        <v>90</v>
+      </c>
+      <c r="F134" t="s">
+        <v>91</v>
       </c>
       <c r="G134" t="s">
         <v>6</v>
@@ -5702,30 +5713,30 @@
         <v>24</v>
       </c>
       <c r="I134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>125</v>
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
+      </c>
+      <c r="F135" t="s">
+        <v>91</v>
       </c>
       <c r="G135" t="s">
         <v>6</v>
@@ -5734,7 +5745,7 @@
         <v>24</v>
       </c>
       <c r="I135" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>125</v>
@@ -5742,22 +5753,22 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G136" t="s">
         <v>6</v>
@@ -5774,22 +5785,22 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E137" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="G137" t="s">
         <v>6</v>
@@ -5798,30 +5809,30 @@
         <v>24</v>
       </c>
       <c r="I137" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J137" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G138" t="s">
         <v>6</v>
@@ -5830,7 +5841,7 @@
         <v>24</v>
       </c>
       <c r="I138" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J138" t="s">
         <v>17</v>
@@ -5838,31 +5849,31 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
         <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J139" t="s">
         <v>17</v>
@@ -5870,22 +5881,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E140" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F140" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="G140" t="s">
         <v>6</v>
@@ -5894,7 +5905,7 @@
         <v>24</v>
       </c>
       <c r="I140" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J140" t="s">
         <v>17</v>
@@ -5902,31 +5913,31 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B141" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C141" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E141" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G141" t="s">
         <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I141" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J141" t="s">
         <v>17</v>
@@ -5934,28 +5945,28 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B142" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E142" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F142" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="G142" t="s">
         <v>6</v>
       </c>
       <c r="H142" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I142" t="s">
         <v>16</v>
@@ -5966,22 +5977,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="E143" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F143" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
         <v>6</v>
@@ -5990,7 +6001,7 @@
         <v>24</v>
       </c>
       <c r="I143" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
@@ -5998,22 +6009,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E144" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F144" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G144" t="s">
         <v>6</v>
@@ -6022,7 +6033,7 @@
         <v>24</v>
       </c>
       <c r="I144" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J144" t="s">
         <v>17</v>
@@ -6030,22 +6041,22 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B145" t="s">
-        <v>122</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>79</v>
+      </c>
+      <c r="E145" t="s">
+        <v>79</v>
+      </c>
+      <c r="F145" t="s">
+        <v>80</v>
       </c>
       <c r="G145" t="s">
         <v>6</v>
@@ -6054,30 +6065,30 @@
         <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>16</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>125</v>
+        <v>25</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G146" t="s">
         <v>6</v>
@@ -6094,28 +6105,28 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
         <v>6</v>
       </c>
       <c r="H147" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
         <v>16</v>
@@ -6126,54 +6137,54 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B148" t="s">
-        <v>122</v>
-      </c>
-      <c r="C148" t="s">
-        <v>32</v>
-      </c>
-      <c r="D148" t="s">
-        <v>40</v>
-      </c>
-      <c r="E148" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" t="s">
-        <v>41</v>
+        <v>119</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G148" t="s">
         <v>6</v>
       </c>
       <c r="H148" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>25</v>
-      </c>
-      <c r="J148" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B149" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E149" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F149" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s">
         <v>6</v>
@@ -6182,7 +6193,7 @@
         <v>24</v>
       </c>
       <c r="I149" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J149" t="s">
         <v>17</v>
@@ -6190,22 +6201,22 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" t="s">
+        <v>41</v>
       </c>
       <c r="G150" t="s">
         <v>6</v>
@@ -6214,39 +6225,39 @@
         <v>24</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>125</v>
+        <v>25</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E151" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F151" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G151" t="s">
         <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I151" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J151" t="s">
         <v>17</v>
@@ -6254,22 +6265,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E152" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F152" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G152" t="s">
         <v>6</v>
@@ -6278,7 +6289,7 @@
         <v>24</v>
       </c>
       <c r="I152" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J152" t="s">
         <v>17</v>
@@ -6286,22 +6297,22 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" t="s">
+        <v>29</v>
       </c>
       <c r="G153" t="s">
         <v>6</v>
@@ -6312,28 +6323,28 @@
       <c r="I153" t="s">
         <v>16</v>
       </c>
-      <c r="J153" s="1" t="s">
-        <v>125</v>
+      <c r="J153" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F154" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>6</v>
@@ -6342,30 +6353,30 @@
         <v>24</v>
       </c>
       <c r="I154" t="s">
-        <v>25</v>
-      </c>
-      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
         <v>6</v>
@@ -6376,28 +6387,28 @@
       <c r="I155" t="s">
         <v>16</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G156" t="s">
         <v>6</v>
@@ -6406,7 +6417,7 @@
         <v>24</v>
       </c>
       <c r="I156" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J156" t="s">
         <v>17</v>
@@ -6414,22 +6425,22 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B157" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G157" t="s">
         <v>6</v>
@@ -6440,28 +6451,28 @@
       <c r="I157" t="s">
         <v>25</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B158" t="s">
-        <v>122</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>41</v>
+        <v>119</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" t="s">
+        <v>79</v>
+      </c>
+      <c r="F158" t="s">
+        <v>80</v>
       </c>
       <c r="G158" t="s">
         <v>6</v>
@@ -6472,28 +6483,28 @@
       <c r="I158" t="s">
         <v>25</v>
       </c>
-      <c r="J158" s="1" t="s">
-        <v>125</v>
+      <c r="J158" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F159" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G159" t="s">
         <v>6</v>
@@ -6502,30 +6513,30 @@
         <v>24</v>
       </c>
       <c r="I159" t="s">
-        <v>16</v>
-      </c>
-      <c r="J159" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G160" t="s">
         <v>6</v>
@@ -6536,28 +6547,28 @@
       <c r="I160" t="s">
         <v>16</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B161" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E161" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F161" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G161" t="s">
         <v>6</v>
@@ -6566,7 +6577,7 @@
         <v>24</v>
       </c>
       <c r="I161" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J161" t="s">
         <v>17</v>
@@ -6574,22 +6585,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G162" t="s">
         <v>6</v>
@@ -6598,7 +6609,7 @@
         <v>24</v>
       </c>
       <c r="I162" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>125</v>
@@ -6606,22 +6617,22 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B163" t="s">
-        <v>122</v>
-      </c>
-      <c r="C163" t="s">
-        <v>37</v>
-      </c>
-      <c r="D163" t="s">
-        <v>48</v>
-      </c>
-      <c r="E163" t="s">
-        <v>48</v>
-      </c>
-      <c r="F163" t="s">
-        <v>49</v>
+        <v>119</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G163" t="s">
         <v>6</v>
@@ -6632,28 +6643,28 @@
       <c r="I163" t="s">
         <v>25</v>
       </c>
-      <c r="J163" t="s">
-        <v>17</v>
+      <c r="J163" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B164" t="s">
-        <v>122</v>
-      </c>
-      <c r="C164" t="s">
-        <v>37</v>
-      </c>
-      <c r="D164" t="s">
-        <v>50</v>
-      </c>
-      <c r="E164" t="s">
-        <v>50</v>
-      </c>
-      <c r="F164" t="s">
-        <v>51</v>
+        <v>119</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G164" t="s">
         <v>6</v>
@@ -6664,28 +6675,28 @@
       <c r="I164" t="s">
         <v>25</v>
       </c>
-      <c r="J164" t="s">
-        <v>17</v>
+      <c r="J164" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E165" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F165" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
         <v>6</v>
@@ -6694,7 +6705,7 @@
         <v>24</v>
       </c>
       <c r="I165" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J165" t="s">
         <v>17</v>
@@ -6702,31 +6713,31 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B166" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E166" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F166" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G166" t="s">
         <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I166" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J166" t="s">
         <v>17</v>
@@ -6734,33 +6745,1089 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" t="s">
+        <v>119</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167" t="s">
+        <v>6</v>
+      </c>
+      <c r="H167" t="s">
+        <v>24</v>
+      </c>
+      <c r="I167" t="s">
+        <v>16</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>120</v>
+      </c>
+      <c r="B168" t="s">
+        <v>119</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" t="s">
+        <v>29</v>
+      </c>
+      <c r="G168" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>121</v>
+      </c>
+      <c r="B169" t="s">
+        <v>122</v>
+      </c>
+      <c r="C169" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" t="s">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>121</v>
+      </c>
+      <c r="B170" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" t="s">
+        <v>40</v>
+      </c>
+      <c r="E170" t="s">
+        <v>40</v>
+      </c>
+      <c r="F170" t="s">
+        <v>41</v>
+      </c>
+      <c r="G170" t="s">
+        <v>6</v>
+      </c>
+      <c r="H170" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170" t="s">
+        <v>25</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>121</v>
+      </c>
+      <c r="B171" t="s">
+        <v>122</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" t="s">
+        <v>73</v>
+      </c>
+      <c r="F171" t="s">
+        <v>74</v>
+      </c>
+      <c r="G171" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" t="s">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>121</v>
+      </c>
+      <c r="B172" t="s">
+        <v>122</v>
+      </c>
+      <c r="C172" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" t="s">
+        <v>60</v>
+      </c>
+      <c r="E172" t="s">
+        <v>60</v>
+      </c>
+      <c r="F172" t="s">
+        <v>61</v>
+      </c>
+      <c r="G172" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" t="s">
+        <v>62</v>
+      </c>
+      <c r="J172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>121</v>
+      </c>
+      <c r="B173" t="s">
+        <v>122</v>
+      </c>
+      <c r="C173" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" t="s">
+        <v>52</v>
+      </c>
+      <c r="F173" t="s">
+        <v>53</v>
+      </c>
+      <c r="G173" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" t="s">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>121</v>
+      </c>
+      <c r="B174" t="s">
+        <v>122</v>
+      </c>
+      <c r="C174" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" t="s">
+        <v>52</v>
+      </c>
+      <c r="F174" t="s">
+        <v>53</v>
+      </c>
+      <c r="G174" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>121</v>
+      </c>
+      <c r="B175" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" t="s">
+        <v>128</v>
+      </c>
+      <c r="E175" t="s">
+        <v>54</v>
+      </c>
+      <c r="F175" t="s">
+        <v>55</v>
+      </c>
+      <c r="G175" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>121</v>
+      </c>
+      <c r="B176" t="s">
+        <v>122</v>
+      </c>
+      <c r="C176" t="s">
+        <v>57</v>
+      </c>
+      <c r="D176" t="s">
+        <v>66</v>
+      </c>
+      <c r="E176" t="s">
+        <v>66</v>
+      </c>
+      <c r="F176" t="s">
+        <v>67</v>
+      </c>
+      <c r="G176" t="s">
+        <v>6</v>
+      </c>
+      <c r="H176" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>121</v>
+      </c>
+      <c r="B177" t="s">
+        <v>122</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G177" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>123</v>
+      </c>
+      <c r="B178" t="s">
+        <v>122</v>
+      </c>
+      <c r="C178" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E178" t="s">
+        <v>33</v>
+      </c>
+      <c r="F178" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>123</v>
+      </c>
+      <c r="B179" t="s">
+        <v>122</v>
+      </c>
+      <c r="C179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" t="s">
+        <v>6</v>
+      </c>
+      <c r="H179" t="s">
+        <v>24</v>
+      </c>
+      <c r="I179" t="s">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>123</v>
+      </c>
+      <c r="B180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" t="s">
+        <v>40</v>
+      </c>
+      <c r="E180" t="s">
+        <v>40</v>
+      </c>
+      <c r="F180" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" t="s">
+        <v>6</v>
+      </c>
+      <c r="H180" t="s">
+        <v>24</v>
+      </c>
+      <c r="I180" t="s">
+        <v>25</v>
+      </c>
+      <c r="J180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>123</v>
+      </c>
+      <c r="B181" t="s">
+        <v>122</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" t="s">
+        <v>73</v>
+      </c>
+      <c r="E181" t="s">
+        <v>73</v>
+      </c>
+      <c r="F181" t="s">
+        <v>74</v>
+      </c>
+      <c r="G181" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" t="s">
+        <v>122</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G182" t="s">
+        <v>6</v>
+      </c>
+      <c r="H182" t="s">
+        <v>24</v>
+      </c>
+      <c r="I182" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>123</v>
+      </c>
+      <c r="B183" t="s">
+        <v>122</v>
+      </c>
+      <c r="C183" t="s">
+        <v>57</v>
+      </c>
+      <c r="D183" t="s">
+        <v>60</v>
+      </c>
+      <c r="E183" t="s">
+        <v>60</v>
+      </c>
+      <c r="F183" t="s">
+        <v>61</v>
+      </c>
+      <c r="G183" t="s">
+        <v>6</v>
+      </c>
+      <c r="H183" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" t="s">
+        <v>62</v>
+      </c>
+      <c r="J183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>123</v>
+      </c>
+      <c r="B184" t="s">
+        <v>122</v>
+      </c>
+      <c r="C184" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" t="s">
+        <v>52</v>
+      </c>
+      <c r="E184" t="s">
+        <v>52</v>
+      </c>
+      <c r="F184" t="s">
+        <v>53</v>
+      </c>
+      <c r="G184" t="s">
+        <v>6</v>
+      </c>
+      <c r="H184" t="s">
+        <v>24</v>
+      </c>
+      <c r="I184" t="s">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>123</v>
+      </c>
+      <c r="B185" t="s">
+        <v>122</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G185" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" t="s">
+        <v>24</v>
+      </c>
+      <c r="I185" t="s">
+        <v>16</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>123</v>
+      </c>
+      <c r="B186" t="s">
+        <v>122</v>
+      </c>
+      <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" t="s">
+        <v>128</v>
+      </c>
+      <c r="E186" t="s">
+        <v>54</v>
+      </c>
+      <c r="F186" t="s">
+        <v>55</v>
+      </c>
+      <c r="G186" t="s">
+        <v>6</v>
+      </c>
+      <c r="H186" t="s">
+        <v>24</v>
+      </c>
+      <c r="I186" t="s">
+        <v>25</v>
+      </c>
+      <c r="J186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>124</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B187" t="s">
         <v>122</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C187" t="s">
         <v>32</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D187" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" t="s">
+        <v>24</v>
+      </c>
+      <c r="I187" t="s">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>124</v>
+      </c>
+      <c r="B188" t="s">
+        <v>122</v>
+      </c>
+      <c r="C188" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s">
+        <v>38</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" t="s">
+        <v>6</v>
+      </c>
+      <c r="H188" t="s">
+        <v>24</v>
+      </c>
+      <c r="I188" t="s">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>124</v>
+      </c>
+      <c r="B189" t="s">
+        <v>122</v>
+      </c>
+      <c r="C189" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" t="s">
+        <v>40</v>
+      </c>
+      <c r="F189" t="s">
+        <v>41</v>
+      </c>
+      <c r="G189" t="s">
+        <v>6</v>
+      </c>
+      <c r="H189" t="s">
+        <v>24</v>
+      </c>
+      <c r="I189" t="s">
+        <v>25</v>
+      </c>
+      <c r="J189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>124</v>
+      </c>
+      <c r="B190" t="s">
+        <v>122</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" t="s">
+        <v>6</v>
+      </c>
+      <c r="H190" t="s">
+        <v>24</v>
+      </c>
+      <c r="I190" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>124</v>
+      </c>
+      <c r="B191" t="s">
+        <v>122</v>
+      </c>
+      <c r="C191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" t="s">
+        <v>129</v>
+      </c>
+      <c r="E191" t="s">
+        <v>46</v>
+      </c>
+      <c r="F191" t="s">
+        <v>47</v>
+      </c>
+      <c r="G191" t="s">
+        <v>6</v>
+      </c>
+      <c r="H191" t="s">
+        <v>24</v>
+      </c>
+      <c r="I191" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>124</v>
+      </c>
+      <c r="B192" t="s">
+        <v>122</v>
+      </c>
+      <c r="C192" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192" t="s">
+        <v>46</v>
+      </c>
+      <c r="F192" t="s">
+        <v>47</v>
+      </c>
+      <c r="G192" t="s">
+        <v>6</v>
+      </c>
+      <c r="H192" t="s">
+        <v>24</v>
+      </c>
+      <c r="I192" t="s">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>124</v>
+      </c>
+      <c r="B193" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" t="s">
+        <v>73</v>
+      </c>
+      <c r="E193" t="s">
+        <v>73</v>
+      </c>
+      <c r="F193" t="s">
+        <v>74</v>
+      </c>
+      <c r="G193" t="s">
+        <v>6</v>
+      </c>
+      <c r="H193" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>124</v>
+      </c>
+      <c r="B194" t="s">
+        <v>122</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G194" t="s">
+        <v>6</v>
+      </c>
+      <c r="H194" t="s">
+        <v>24</v>
+      </c>
+      <c r="I194" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>124</v>
+      </c>
+      <c r="B195" t="s">
+        <v>122</v>
+      </c>
+      <c r="C195" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195" t="s">
+        <v>48</v>
+      </c>
+      <c r="F195" t="s">
+        <v>49</v>
+      </c>
+      <c r="G195" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" t="s">
+        <v>24</v>
+      </c>
+      <c r="I195" t="s">
+        <v>25</v>
+      </c>
+      <c r="J195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>124</v>
+      </c>
+      <c r="B196" t="s">
+        <v>122</v>
+      </c>
+      <c r="C196" t="s">
+        <v>37</v>
+      </c>
+      <c r="D196" t="s">
+        <v>50</v>
+      </c>
+      <c r="E196" t="s">
+        <v>50</v>
+      </c>
+      <c r="F196" t="s">
+        <v>51</v>
+      </c>
+      <c r="G196" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" t="s">
+        <v>24</v>
+      </c>
+      <c r="I196" t="s">
+        <v>25</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>124</v>
+      </c>
+      <c r="B197" t="s">
+        <v>122</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F197" t="s">
+        <v>51</v>
+      </c>
+      <c r="G197" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" t="s">
+        <v>24</v>
+      </c>
+      <c r="I197" t="s">
+        <v>25</v>
+      </c>
+      <c r="J197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>124</v>
+      </c>
+      <c r="B198" t="s">
+        <v>122</v>
+      </c>
+      <c r="C198" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" t="s">
+        <v>52</v>
+      </c>
+      <c r="E198" t="s">
+        <v>52</v>
+      </c>
+      <c r="F198" t="s">
+        <v>53</v>
+      </c>
+      <c r="G198" t="s">
+        <v>6</v>
+      </c>
+      <c r="H198" t="s">
+        <v>24</v>
+      </c>
+      <c r="I198" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>124</v>
+      </c>
+      <c r="B199" t="s">
+        <v>122</v>
+      </c>
+      <c r="C199" t="s">
+        <v>32</v>
+      </c>
+      <c r="D199" t="s">
+        <v>128</v>
+      </c>
+      <c r="E199" t="s">
         <v>54</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F199" t="s">
+        <v>55</v>
+      </c>
+      <c r="G199" t="s">
+        <v>6</v>
+      </c>
+      <c r="H199" t="s">
+        <v>24</v>
+      </c>
+      <c r="I199" t="s">
+        <v>25</v>
+      </c>
+      <c r="J199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>124</v>
+      </c>
+      <c r="B200" t="s">
+        <v>122</v>
+      </c>
+      <c r="C200" t="s">
+        <v>32</v>
+      </c>
+      <c r="D200" t="s">
         <v>54</v>
       </c>
-      <c r="F167" t="s">
+      <c r="E200" t="s">
+        <v>54</v>
+      </c>
+      <c r="F200" t="s">
         <v>55</v>
       </c>
-      <c r="G167" t="s">
-        <v>6</v>
-      </c>
-      <c r="H167" t="s">
-        <v>24</v>
-      </c>
-      <c r="I167" t="s">
+      <c r="G200" t="s">
+        <v>6</v>
+      </c>
+      <c r="H200" t="s">
+        <v>24</v>
+      </c>
+      <c r="I200" t="s">
         <v>25</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J200" t="s">
         <v>17</v>
       </c>
     </row>
